--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1311,10 +1311,10 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1344,16 +1344,16 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1377,13 +1377,13 @@
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1392,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1493,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>1.83</v>
@@ -1889,10 +1889,10 @@
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>29</v>
@@ -1916,7 +1916,7 @@
         <v>101</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
@@ -1943,7 +1943,7 @@
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY8" t="n">
         <v>19</v>
@@ -2213,10 +2213,10 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
         <v>5.4</v>
@@ -2382,10 +2382,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L11" t="n">
         <v>8</v>
@@ -2400,28 +2400,28 @@
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.65</v>
       </c>
       <c r="R11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.18</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.15</v>
       </c>
       <c r="V11" t="n">
         <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X11" t="n">
         <v>6.2</v>
@@ -2430,7 +2430,7 @@
         <v>9.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2442,7 +2442,7 @@
         <v>9.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
         <v>29</v>
@@ -2457,7 +2457,7 @@
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
         <v>35</v>
@@ -2475,10 +2475,10 @@
         <v>3.05</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>14</v>
@@ -2490,7 +2490,7 @@
         <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU11" t="n">
         <v>9.5</v>
@@ -2500,16 +2500,16 @@
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ11" t="n">
         <v>55</v>
       </c>
       <c r="BA11" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB11" t="n">
         <v>450</v>
@@ -2734,16 +2734,16 @@
         <v>6.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.95</v>
@@ -2752,7 +2752,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2767,25 +2767,25 @@
         <v>2.35</v>
       </c>
       <c r="S13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>67</v>
@@ -2797,10 +2797,10 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2812,10 +2812,10 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
@@ -2836,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="n">
         <v>101</v>
@@ -2845,16 +2845,16 @@
         <v>101</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
         <v>351</v>
@@ -2866,7 +2866,7 @@
         <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>19</v>
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>3.8</v>
@@ -2925,16 +2925,16 @@
         <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2943,10 +2943,10 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -2955,31 +2955,31 @@
         <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -2988,13 +2988,13 @@
         <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>19</v>
@@ -3015,10 +3015,10 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -3033,7 +3033,7 @@
         <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
@@ -3045,7 +3045,7 @@
         <v>5.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>34</v>
@@ -3057,7 +3057,7 @@
         <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3632,54 +3632,148 @@
           <t>Maghreb Fez</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>120</v>
+      </c>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
+      <c r="AX18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>300</v>
+      </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
     </row>
@@ -4079,13 +4173,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
         <v>1.91</v>
@@ -4100,7 +4194,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
@@ -4109,10 +4203,10 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.18</v>
@@ -4130,7 +4224,7 @@
         <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
@@ -4142,10 +4236,10 @@
         <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD21" t="n">
         <v>12</v>
@@ -4163,7 +4257,7 @@
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
@@ -4178,13 +4272,13 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4285,16 +4379,16 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4803,58 +4897,58 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.5</v>
       </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -4863,28 +4957,28 @@
         <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
         <v>17</v>
@@ -4896,10 +4990,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
@@ -4908,44 +5002,44 @@
         <v>12</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
         <v>5.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="inlineStr"/>
     </row>
@@ -4981,22 +5075,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.6</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -5023,73 +5117,73 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI26" t="n">
         <v>19</v>
       </c>
-      <c r="AF26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO26" t="n">
         <v>11</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
         <v>51</v>
@@ -5101,29 +5195,29 @@
         <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
         <v>67</v>
       </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB26" t="n">
         <v>101</v>
       </c>
-      <c r="BB26" t="n">
-        <v>151</v>
-      </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD26" t="inlineStr"/>
     </row>
@@ -6069,16 +6163,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2.05</v>
@@ -6087,16 +6181,16 @@
         <v>4.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
         <v>2.25</v>
@@ -6105,10 +6199,10 @@
         <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U32" t="n">
         <v>1.91</v>
@@ -6123,25 +6217,25 @@
         <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
         <v>51</v>
@@ -6150,10 +6244,10 @@
         <v>351</v>
       </c>
       <c r="AH32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
         <v>13</v>
@@ -6171,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP32" t="n">
         <v>23</v>
@@ -6186,7 +6280,7 @@
         <v>201</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU32" t="n">
         <v>8.5</v>
@@ -6251,28 +6345,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="J33" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K33" t="n">
         <v>2.07</v>
       </c>
       <c r="L33" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>9.300000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="O33" t="n">
         <v>1.35</v>
@@ -6281,10 +6375,10 @@
         <v>2.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
         <v>1.4</v>
@@ -6293,25 +6387,25 @@
         <v>2.52</v>
       </c>
       <c r="U33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W33" t="n">
         <v>6.1</v>
       </c>
       <c r="X33" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y33" t="n">
         <v>8.25</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
         <v>30</v>
@@ -6320,10 +6414,10 @@
         <v>8.25</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
         <v>90</v>
@@ -6338,13 +6432,13 @@
         <v>24</v>
       </c>
       <c r="AJ33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK33" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
         <v>55</v>
@@ -6356,22 +6450,22 @@
         <v>8.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR33" t="n">
         <v>65</v>
       </c>
       <c r="AS33" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT33" t="n">
         <v>2.47</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV33" t="n">
         <v>70</v>
@@ -6380,22 +6474,22 @@
         <v>81</v>
       </c>
       <c r="AX33" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA33" t="n">
         <v>150</v>
       </c>
       <c r="BB33" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC33" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD33" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1037,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>101</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1526,16 +1526,16 @@
         <v>4.75</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1557,10 +1557,10 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>101</v>
@@ -1584,10 +1584,10 @@
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
@@ -1602,7 +1602,7 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1685,10 +1685,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1850,7 +1850,7 @@
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
@@ -1859,10 +1859,10 @@
         <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
         <v>2.88</v>
@@ -1871,10 +1871,10 @@
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
         <v>2.25</v>
@@ -1952,7 +1952,7 @@
         <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
@@ -1974,7 +1974,7 @@
         <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
         <v>351</v>
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
         <v>1.45</v>
@@ -2809,7 +2809,7 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
         <v>8.5</v>
@@ -2821,7 +2821,7 @@
         <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
         <v>11</v>
@@ -3273,28 +3273,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -3303,10 +3303,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3321,28 +3321,28 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -3357,13 +3357,13 @@
         <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>13</v>
@@ -3372,7 +3372,7 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
@@ -3381,13 +3381,13 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
@@ -3403,13 +3403,13 @@
         <v>3.75</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
         <v>41</v>
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3502,7 +3502,7 @@
         <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
@@ -3535,7 +3535,7 @@
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3553,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -3583,7 +3583,7 @@
         <v>5.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
@@ -3633,146 +3633,146 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
         <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R18" t="n">
         <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="T18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AG18" t="n">
         <v>101</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
         <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
@@ -4173,10 +4173,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
         <v>5.25</v>
@@ -4194,7 +4194,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
@@ -4203,10 +4203,10 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S21" t="n">
         <v>1.18</v>
@@ -4224,7 +4224,7 @@
         <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
@@ -4236,10 +4236,10 @@
         <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="n">
         <v>12</v>
@@ -4257,7 +4257,7 @@
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
@@ -4272,13 +4272,13 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4355,19 +4355,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
         <v>2.75</v>
@@ -4376,7 +4376,7 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
         <v>1.18</v>
@@ -4385,10 +4385,10 @@
         <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4397,13 +4397,13 @@
         <v>3.4</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -4418,16 +4418,16 @@
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
@@ -4436,7 +4436,7 @@
         <v>126</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4457,7 +4457,7 @@
         <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
@@ -4481,19 +4481,19 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AX22" t="n">
         <v>4.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB22" t="n">
         <v>51</v>
@@ -4537,19 +4537,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J23" t="n">
         <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
@@ -4558,70 +4558,70 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O23" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R23" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB23" t="n">
         <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
@@ -4654,7 +4654,7 @@
         <v>67</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU23" t="n">
         <v>6.5</v>
@@ -4663,7 +4663,7 @@
         <v>34</v>
       </c>
       <c r="AW23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AX23" t="n">
         <v>5.5</v>
@@ -4672,7 +4672,7 @@
         <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>41</v>
@@ -4681,7 +4681,7 @@
         <v>41</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4897,22 +4897,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -4927,10 +4927,10 @@
         <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
         <v>1.5</v>
@@ -4939,25 +4939,25 @@
         <v>2.5</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
@@ -4972,25 +4972,25 @@
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH25" t="n">
         <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
@@ -4999,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -5024,13 +5024,13 @@
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA25" t="n">
         <v>67</v>
@@ -5039,7 +5039,7 @@
         <v>101</v>
       </c>
       <c r="BC25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD25" t="inlineStr"/>
     </row>
@@ -5075,40 +5075,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>2.63</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5123,10 +5123,10 @@
         <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
@@ -5153,7 +5153,7 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH26" t="n">
         <v>9.5</v>
@@ -5174,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
@@ -5189,7 +5189,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
         <v>2.63</v>
@@ -5198,20 +5198,20 @@
         <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
         <v>5.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
         <v>101</v>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -5638,7 +5638,7 @@
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -5710,7 +5710,7 @@
         <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
         <v>41</v>
@@ -5746,10 +5746,10 @@
         <v>51</v>
       </c>
       <c r="AX29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>29</v>
@@ -5823,16 +5823,16 @@
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>2.32</v>
@@ -6360,13 +6360,13 @@
         <v>2.07</v>
       </c>
       <c r="L33" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>9.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O33" t="n">
         <v>1.35</v>
@@ -6375,10 +6375,10 @@
         <v>2.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
         <v>1.4</v>
@@ -6387,22 +6387,22 @@
         <v>2.52</v>
       </c>
       <c r="U33" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X33" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y33" t="n">
         <v>8.25</v>
       </c>
       <c r="Z33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA33" t="n">
         <v>15</v>
@@ -6411,13 +6411,13 @@
         <v>30</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF33" t="n">
         <v>90</v>
@@ -6426,7 +6426,7 @@
         <v>800</v>
       </c>
       <c r="AH33" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI33" t="n">
         <v>24</v>
@@ -6441,7 +6441,7 @@
         <v>50</v>
       </c>
       <c r="AM33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN33" t="n">
         <v>3.55</v>
@@ -6450,40 +6450,40 @@
         <v>8.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>30</v>
       </c>
       <c r="AR33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV33" t="n">
         <v>65</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>70</v>
       </c>
       <c r="AW33" t="n">
         <v>81</v>
       </c>
       <c r="AX33" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ33" t="n">
         <v>32</v>
       </c>
       <c r="BA33" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB33" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -771,37 +771,37 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -810,31 +810,31 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -861,10 +861,10 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX2" t="n">
         <v>7.5</v>
@@ -885,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>101</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>3.6</v>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1028,16 +1028,16 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>101</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1162,10 +1162,10 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -1195,7 +1195,7 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
@@ -1204,16 +1204,16 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1243,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>81</v>
@@ -1493,10 +1493,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1620,7 +1620,7 @@
         <v>451</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +1853,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
         <v>2.2</v>
@@ -2013,40 +2013,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2064,25 +2064,25 @@
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2091,7 +2091,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
         <v>23</v>
@@ -2121,19 +2121,19 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
         <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2142,22 +2142,22 @@
         <v>51</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2213,16 +2213,16 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
         <v>2.4</v>
@@ -2567,13 +2567,13 @@
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2809,7 +2809,7 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
         <v>8.5</v>
@@ -2821,7 +2821,7 @@
         <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>11</v>
@@ -2934,7 +2934,7 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2943,10 +2943,10 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -3273,16 +3273,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -3303,10 +3303,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3324,13 +3324,13 @@
         <v>13</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="n">
         <v>34</v>
@@ -3384,10 +3384,10 @@
         <v>81</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
@@ -3451,22 +3451,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3493,25 +3493,25 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3529,37 +3529,37 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO17" t="n">
         <v>10</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3580,22 +3580,22 @@
         <v>126</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3639,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
@@ -3669,16 +3669,16 @@
         <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
         <v>5</v>
@@ -3714,16 +3714,16 @@
         <v>101</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
         <v>41</v>
@@ -3750,7 +3750,7 @@
         <v>351</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU18" t="n">
         <v>10</v>
@@ -3763,7 +3763,7 @@
         <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>41</v>
@@ -3863,7 +3863,7 @@
         <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -3929,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
@@ -4000,7 +4000,7 @@
         <v>2.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
@@ -4009,10 +4009,10 @@
         <v>3.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
@@ -4051,10 +4051,10 @@
         <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>19</v>
@@ -4075,7 +4075,7 @@
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4120,10 +4120,10 @@
         <v>301</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4215,19 +4215,19 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V21" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W21" t="n">
         <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
@@ -4236,7 +4236,7 @@
         <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>34</v>
@@ -4272,7 +4272,7 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
@@ -4355,22 +4355,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -4397,16 +4397,16 @@
         <v>3.4</v>
       </c>
       <c r="U22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W22" t="n">
         <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -4418,7 +4418,7 @@
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
@@ -4436,7 +4436,7 @@
         <v>126</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4445,7 +4445,7 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>15</v>
@@ -4484,7 +4484,7 @@
         <v>351</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY22" t="n">
         <v>11</v>
@@ -4496,7 +4496,7 @@
         <v>34</v>
       </c>
       <c r="BB22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC22" t="n">
         <v>101</v>
@@ -4537,13 +4537,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J23" t="n">
         <v>2.75</v>
@@ -4552,13 +4552,13 @@
         <v>2.63</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O23" t="n">
         <v>1.08</v>
@@ -4582,10 +4582,10 @@
         <v>1.3</v>
       </c>
       <c r="V23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
@@ -4597,7 +4597,7 @@
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
         <v>17</v>
@@ -4606,7 +4606,7 @@
         <v>29</v>
       </c>
       <c r="AD23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>10</v>
@@ -4615,13 +4615,13 @@
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
@@ -4636,7 +4636,7 @@
         <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
@@ -4663,7 +4663,7 @@
         <v>34</v>
       </c>
       <c r="AW23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AX23" t="n">
         <v>5.5</v>
@@ -4719,28 +4719,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4749,37 +4749,37 @@
         <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="W24" t="n">
         <v>6.5</v>
       </c>
       <c r="X24" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
         <v>34</v>
@@ -4800,43 +4800,43 @@
         <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
         <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
         <v>8.5</v>
@@ -4846,22 +4846,22 @@
       </c>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="inlineStr"/>
     </row>
@@ -4939,10 +4939,10 @@
         <v>2.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
@@ -5075,40 +5075,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5144,7 +5144,7 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5159,16 +5159,16 @@
         <v>9.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -5186,7 +5186,7 @@
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
         <v>151</v>
@@ -5253,22 +5253,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5283,10 +5283,10 @@
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5346,7 +5346,7 @@
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>26</v>
@@ -5358,13 +5358,13 @@
         <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
@@ -5385,7 +5385,7 @@
         <v>4.33</v>
       </c>
       <c r="AY27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>21</v>
@@ -5805,7 +5805,7 @@
         <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J30" t="n">
         <v>4.33</v>
@@ -5823,16 +5823,16 @@
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
@@ -5981,58 +5981,58 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="S31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X31" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>8</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
@@ -6047,10 +6047,10 @@
         <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
@@ -6062,13 +6062,13 @@
         <v>151</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>67</v>
@@ -6086,28 +6086,28 @@
         <v>7</v>
       </c>
       <c r="AP31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>17</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>19</v>
-      </c>
       <c r="AR31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AX31" t="n">
         <v>8</v>
@@ -6116,7 +6116,7 @@
         <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA31" t="n">
         <v>101</v>
@@ -6125,7 +6125,7 @@
         <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD31" t="n">
         <v>301</v>
@@ -6181,10 +6181,10 @@
         <v>4.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>1.36</v>
@@ -6193,10 +6193,10 @@
         <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6345,82 +6345,82 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J33" t="n">
         <v>2.32</v>
       </c>
       <c r="K33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2.07</v>
       </c>
-      <c r="L33" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="U33" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W33" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y33" t="n">
         <v>8.25</v>
       </c>
       <c r="Z33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG33" t="n">
         <v>800</v>
@@ -6429,46 +6429,46 @@
         <v>10.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL33" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO33" t="n">
         <v>8.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
         <v>30</v>
       </c>
       <c r="AR33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS33" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AV33" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW33" t="n">
         <v>81</v>
@@ -6477,19 +6477,19 @@
         <v>6.2</v>
       </c>
       <c r="AY33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA33" t="n">
         <v>175</v>
       </c>
       <c r="BB33" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC33" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD33" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,21 +704,11 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tvEkq8nm</t>
+          <t>IBJAWlHc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +718,166 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Odisha FC</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="W2" t="n">
+        <v>11</v>
+      </c>
+      <c r="X2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
         <v>9</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AK2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="n">
         <v>17</v>
       </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
         <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD2" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -755,13 +755,13 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -755,13 +755,13 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
@@ -788,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
         <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>15</v>
@@ -827,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
@@ -836,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -866,10 +866,10 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -755,10 +755,10 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -767,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IBJAWlHc</t>
+          <t>AiivoxjC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,167 +728,529 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Odisha FC</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.05</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
         <v>3.6</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>11</v>
-      </c>
-      <c r="X2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
       </c>
       <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA2" t="n">
         <v>151</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="BB2" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IBJAWlHc</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>51</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX3" t="n">
         <v>11</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY3" t="n">
         <v>19</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ3" t="n">
         <v>41</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA3" t="n">
         <v>51</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB3" t="n">
         <v>126</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>j3x6GxT7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Poli Iasi</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -762,13 +762,13 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -795,7 +795,7 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -867,16 +867,16 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -943,10 +943,10 @@
         <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -955,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,7 +896,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IBJAWlHc</t>
+          <t>YHOF5rBm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -906,167 +906,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Odisha FC</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
         <v>3.6</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>11</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
       </c>
       <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
         <v>151</v>
       </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>j3x6GxT7</t>
+          <t>IBJAWlHc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,173 +1084,533 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Odisha FC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
         <v>3.25</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
         <v>11</v>
       </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
       <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>j3x6GxT7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poli Iasi</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS5" t="n">
         <v>251</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT5" t="n">
         <v>2.38</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU5" t="n">
         <v>9</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV5" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>19</v>
       </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
       </c>
-      <c r="BD4" t="n">
-        <v>51</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>zRQv9vQQ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -1281,28 +1281,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1332,22 +1332,22 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>5.5</v>
@@ -1356,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>351</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1383,7 +1383,7 @@
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -765,13 +765,13 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>7.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>2.75</v>
@@ -792,7 +792,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -943,16 +943,16 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
         <v>2.4</v>
@@ -970,7 +970,7 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1293,16 +1293,16 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1314,7 +1314,7 @@
         <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,22 +765,22 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -792,7 +792,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -943,16 +943,16 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.4</v>
@@ -970,7 +970,7 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1074,7 +1074,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IBJAWlHc</t>
+          <t>j3x6GxT7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,175 +1084,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Odisha FC</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
         <v>34</v>
       </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
       <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
-      <c r="BB4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>j3x6GxT7</t>
+          <t>zRQv9vQQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1262,354 +1266,172 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>FK Zorya Luhansk</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X5" t="n">
         <v>7</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW5" t="n">
         <v>6.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="AX5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
       <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>zRQv9vQQ</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Polissya Zhytomyr</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>FK Zorya Luhansk</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -780,7 +780,7 @@
         <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -828,7 +828,7 @@
         <v>1250</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -858,7 +858,7 @@
         <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -867,7 +867,7 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -955,10 +955,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -780,7 +780,7 @@
         <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -795,7 +795,7 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -896,7 +896,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YHOF5rBm</t>
+          <t>dKuY1awJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -906,175 +906,173 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Karmiotissa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>7.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>12.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>10.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>401</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>j3x6GxT7</t>
+          <t>YHOF5rBm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,41 +1082,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1133,10 +1131,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1145,25 +1143,25 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1172,49 +1170,49 @@
         <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
         <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>251</v>
@@ -1223,215 +1221,757 @@
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>j3x6GxT7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poli Iasi</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pAmNNiN5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IVJXYAq9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>zRQv9vQQ</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>25/11/2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Polissya Zhytomyr</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G8" t="n">
         <v>1.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I8" t="n">
         <v>4.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J8" t="n">
         <v>2.25</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K8" t="n">
         <v>2.07</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L8" t="n">
         <v>5.2</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M8" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N8" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O8" t="n">
         <v>1.36</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P8" t="n">
         <v>2.67</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q8" t="n">
         <v>2.05</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R8" t="n">
         <v>1.62</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S8" t="n">
         <v>1.42</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T8" t="n">
         <v>2.45</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U8" t="n">
         <v>1.98</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V8" t="n">
         <v>1.65</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W8" t="n">
         <v>5.7</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X8" t="n">
         <v>7</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y8" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z8" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA8" t="n">
         <v>15</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB8" t="n">
         <v>32</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC8" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD8" t="n">
         <v>6.7</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE8" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF8" t="n">
         <v>110</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG8" t="n">
         <v>900</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH8" t="n">
         <v>11.5</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI8" t="n">
         <v>28</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ8" t="n">
         <v>16.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK8" t="n">
         <v>100</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL8" t="n">
         <v>60</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM8" t="n">
         <v>65</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN8" t="n">
         <v>3.35</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO8" t="n">
         <v>8.25</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP8" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ8" t="n">
         <v>28</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR8" t="n">
         <v>65</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS8" t="n">
         <v>300</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT8" t="n">
         <v>2.42</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU8" t="n">
         <v>7.9</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV8" t="n">
         <v>80</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX8" t="n">
         <v>30</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY8" t="n">
         <v>37</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ8" t="n">
         <v>200</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA8" t="n">
         <v>250</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB8" t="n">
         <v>500</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -1119,16 +1119,16 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1503,7 +1503,7 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
         <v>2.1</v>
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -1119,16 +1119,16 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1503,7 +1503,7 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
         <v>2.1</v>
@@ -1658,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1679,16 +1679,16 @@
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1760,7 +1760,7 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AiivoxjC</t>
+          <t>pMsXgyno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,175 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX2" t="n">
         <v>17</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>51</v>
       </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>101</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
       </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dKuY1awJ</t>
+          <t>AiivoxjC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -906,173 +910,175 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Karmiotissa</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.62</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>4.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
       </c>
-      <c r="X3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>450</v>
-      </c>
-      <c r="BB3" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>351</v>
+      </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YHOF5rBm</t>
+          <t>dKuY1awJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1082,175 +1088,173 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Karmiotissa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>1.65</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" t="n">
         <v>7</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>7.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>5.2</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>12.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>10.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>401</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>j3x6GxT7</t>
+          <t>tAhoe7gl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1260,179 +1264,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>1.44</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="K5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.95</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="n">
         <v>34</v>
       </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>19</v>
       </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pAmNNiN5</t>
+          <t>YHOF5rBm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1442,179 +1446,175 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.63</v>
       </c>
-      <c r="L6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>19</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
         <v>5.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>21</v>
       </c>
-      <c r="AC6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>41</v>
       </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17</v>
-      </c>
       <c r="AR6" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>81</v>
       </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>301</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IVJXYAq9</t>
+          <t>j3x6GxT7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1624,41 +1624,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Amedspor</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
         <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1667,22 +1667,22 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1691,28 +1691,28 @@
         <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1724,43 +1724,43 @@
         <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1769,209 +1769,573 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>pAmNNiN5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IVJXYAq9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>zRQv9vQQ</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>25/11/2024</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Polissya Zhytomyr</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G10" t="n">
         <v>1.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H10" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I10" t="n">
         <v>4.9</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="J10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.04</v>
       </c>
-      <c r="N8" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="N10" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.62</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.98</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V10" t="n">
         <v>1.65</v>
       </c>
-      <c r="W8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="W10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AA10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB10" t="n">
         <v>32</v>
       </c>
-      <c r="AC8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6.7</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE10" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF10" t="n">
         <v>110</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG10" t="n">
         <v>900</v>
       </c>
-      <c r="AH8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AH10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
         <v>100</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL10" t="n">
         <v>60</v>
       </c>
-      <c r="AM8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="AM10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV10" t="n">
         <v>80</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW10" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX10" t="n">
         <v>30</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY10" t="n">
         <v>37</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ10" t="n">
         <v>200</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA10" t="n">
         <v>250</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB10" t="n">
         <v>500</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC10" t="n">
         <v>81</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -792,7 +792,7 @@
         <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1134,7 +1134,7 @@
         <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Q4" t="n">
         <v>1.53</v>
@@ -1155,10 +1155,10 @@
         <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.75</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
@@ -1188,16 +1188,16 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL4" t="n">
         <v>175</v>
@@ -1227,19 +1227,19 @@
         <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>80</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AY4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ4" t="n">
         <v>500</v>
@@ -1325,10 +1325,10 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>19</v>
@@ -1495,10 +1495,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1507,19 +1507,19 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>15</v>
@@ -1531,13 +1531,13 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -2210,7 +2210,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>9.15</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,7 +792,7 @@
         <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AiivoxjC</t>
+          <t>dKuY1awJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,173 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Krumovgrad</t>
+          <t>Karmiotissa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.23</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="J3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.05</v>
       </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>7.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AG3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>5.2</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dKuY1awJ</t>
+          <t>b1mheFqJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,53 +1086,53 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Karmiotissa</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.23</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.53</v>
@@ -1143,113 +1141,119 @@
         <v>2.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AX4" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>450</v>
-      </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1307,16 +1311,16 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1325,10 +1329,10 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
         <v>19</v>
@@ -1474,19 +1478,19 @@
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1495,10 +1499,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1614,7 +1618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>j3x6GxT7</t>
+          <t>KlyLCRU1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1624,131 +1628,131 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1757,46 +1761,46 @@
         <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pAmNNiN5</t>
+          <t>MRQYCZW7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1806,65 +1810,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1.67</v>
@@ -1873,31 +1877,31 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>19</v>
-      </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1906,79 +1910,79 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IVJXYAq9</t>
+          <t>pAmNNiN5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1993,111 +1997,111 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Amedspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
         <v>8.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD9" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>19</v>
       </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AK9" t="n">
         <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2109,233 +2113,415 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
         <v>41</v>
       </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD9" t="n">
         <v>301</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>IVJXYAq9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>zRQv9vQQ</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>25/11/2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Polissya Zhytomyr</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>1.7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AO11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX11" t="n">
         <v>32</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="AY11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA11" t="n">
         <v>250</v>
       </c>
-      <c r="AT10" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB10" t="n">
+      <c r="BB11" t="n">
         <v>500</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC11" t="n">
         <v>81</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -759,10 +759,10 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -789,13 +789,13 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -837,10 +837,10 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
         <v>26</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -1302,7 +1302,7 @@
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1317,7 +1317,7 @@
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
         <v>2.2</v>
@@ -1329,10 +1329,10 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>19</v>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1665,13 +1665,13 @@
         <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1689,7 +1689,7 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1698,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1707,10 +1707,10 @@
         <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1719,7 +1719,7 @@
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1728,7 +1728,7 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
@@ -1767,7 +1767,7 @@
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -2011,16 +2011,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
         <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
         <v>2.6</v>
@@ -2080,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2122,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="AR9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
         <v>81</v>
@@ -2137,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
@@ -2146,7 +2146,7 @@
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
@@ -2211,10 +2211,10 @@
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +759,7 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1.62</v>
@@ -971,28 +971,28 @@
         <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA3" t="n">
         <v>11.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -1010,10 +1010,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
         <v>40</v>
@@ -1034,7 +1034,7 @@
         <v>5.2</v>
       </c>
       <c r="AP3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>12.5</v>
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AX3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AY3" t="n">
         <v>55</v>
@@ -1067,7 +1067,7 @@
         <v>500</v>
       </c>
       <c r="BA3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
@@ -1123,13 +1123,13 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1290,7 +1290,7 @@
         <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
         <v>1.44</v>
@@ -1299,10 +1299,10 @@
         <v>6.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1311,16 +1311,16 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1329,10 +1329,10 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
         <v>19</v>
@@ -1350,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1440,7 +1440,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YHOF5rBm</t>
+          <t>KlyLCRU1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,175 +1450,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>41</v>
       </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KlyLCRU1</t>
+          <t>MRQYCZW7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1633,39 +1637,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
@@ -1674,43 +1678,43 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>10</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1725,46 +1729,46 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>11</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1773,19 +1777,19 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
@@ -1800,7 +1804,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MRQYCZW7</t>
+          <t>feF9vkFc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1810,173 +1814,173 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
         <v>2.63</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
         <v>17</v>
       </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
       <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
         <v>29</v>
       </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -2011,28 +2015,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
@@ -2041,10 +2045,10 @@
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2062,13 +2066,13 @@
         <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
@@ -2077,7 +2081,7 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
         <v>9</v>
@@ -2092,16 +2096,16 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2113,13 +2117,13 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2140,7 +2144,7 @@
         <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2149,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2208,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2217,10 +2221,10 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
         <v>2.35</v>
@@ -2229,10 +2233,10 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2310,7 +2314,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2341,188 +2345,6 @@
       </c>
       <c r="BD10" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>zRQv9vQQ</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Polissya Zhytomyr</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FK Zorya Luhansk</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -831,7 +831,7 @@
         <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -932,19 +932,19 @@
         <v>1.24</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -965,34 +965,34 @@
         <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -1013,22 +1013,22 @@
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AL3" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO3" t="n">
         <v>5.2</v>
@@ -1046,7 +1046,7 @@
         <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1055,19 +1055,19 @@
         <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AY3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ3" t="n">
         <v>500</v>
       </c>
       <c r="BA3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
@@ -1123,13 +1123,13 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1287,40 +1287,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
         <v>6.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.95</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1329,13 +1329,13 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
         <v>41</v>
@@ -1350,13 +1350,13 @@
         <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1365,7 +1365,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
@@ -1422,13 +1422,13 @@
         <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
         <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
         <v>351</v>
@@ -1511,7 +1511,7 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1863,10 +1863,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1875,10 +1875,10 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
         <v>11</v>
@@ -2051,10 +2051,10 @@
         <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -2066,7 +2066,7 @@
         <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2129,10 +2129,10 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2153,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,7 +792,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>11.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="K3" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
         <v>8.5</v>
@@ -956,7 +956,7 @@
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="Q3" t="n">
         <v>1.53</v>
@@ -965,34 +965,34 @@
         <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>120</v>
@@ -1019,7 +1019,7 @@
         <v>37</v>
       </c>
       <c r="AK3" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL3" t="n">
         <v>150</v>
@@ -1028,16 +1028,16 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>37</v>
@@ -1046,7 +1046,7 @@
         <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1055,7 +1055,7 @@
         <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AX3" t="n">
         <v>60</v>
@@ -1105,19 +1105,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>4.5</v>
@@ -1135,25 +1135,25 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
         <v>10</v>
@@ -1168,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>17</v>
@@ -1180,13 +1180,13 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1195,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
@@ -1210,7 +1210,7 @@
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
@@ -1219,10 +1219,10 @@
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1237,19 +1237,19 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1287,40 +1287,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1329,40 +1329,40 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="n">
         <v>12</v>
@@ -1386,37 +1386,37 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY5" t="n">
         <v>17</v>
@@ -1440,7 +1440,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KlyLCRU1</t>
+          <t>Uq4wcHSO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,179 +1450,173 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.2</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AP6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MRQYCZW7</t>
+          <t>KvQWudPM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1632,179 +1626,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T7" t="n">
         <v>4</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>17</v>
       </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AR7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>29</v>
       </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>feF9vkFc</t>
+          <t>2aTezzmp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1814,179 +1808,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.63</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W8" t="n">
+        <v>15</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
         <v>101</v>
       </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pAmNNiN5</t>
+          <t>APW3YDHd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1996,179 +1990,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
         <v>34</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>81</v>
       </c>
       <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
         <v>101</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BC9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD9" t="n">
         <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IVJXYAq9</t>
+          <t>hldltQz3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2178,172 +2172,1264 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Amedspor</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
         <v>8</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
         <v>6</v>
       </c>
-      <c r="X10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AO10" t="n">
         <v>19</v>
       </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
       </c>
       <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tO74xrzS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Jong PSV</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jong AZ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>21</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KlyLCRU1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
         <v>201</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MRQYCZW7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Legnica</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wisla Plock</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>feF9vkFc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Univ. Craiova</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pAmNNiN5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IVJXYAq9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.38</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
         <v>9</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV16" t="n">
         <v>67</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW16" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX16" t="n">
         <v>23</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY16" t="n">
         <v>34</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ16" t="n">
         <v>81</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA16" t="n">
         <v>126</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB16" t="n">
         <v>301</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC16" t="n">
         <v>126</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD16" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1147,13 +1147,13 @@
         <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
         <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
         <v>10</v>
@@ -1165,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1201,13 +1201,13 @@
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1237,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1311,16 +1311,16 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2579,22 +2579,22 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
         <v>1.75</v>
@@ -2603,31 +2603,31 @@
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
         <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2636,34 +2636,34 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM12" t="n">
         <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2672,7 +2672,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
@@ -2681,10 +2681,10 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.75</v>
@@ -792,7 +792,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -867,7 +867,7 @@
         <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dKuY1awJ</t>
+          <t>b1mheFqJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,173 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Karmiotissa</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>11.25</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
         <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>26</v>
       </c>
-      <c r="AF3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>13</v>
-      </c>
       <c r="AR3" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
         <v>3.4</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b1mheFqJ</t>
+          <t>tAhoe7gl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1086,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17</v>
       </c>
       <c r="AD4" t="n">
         <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>17</v>
       </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AZ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1258,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tAhoe7gl</t>
+          <t>Uq4wcHSO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1268,179 +1274,173 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
         <v>15</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>19</v>
-      </c>
-      <c r="X5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>67</v>
-      </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11</v>
       </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>29</v>
       </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA5" t="n">
         <v>201</v>
       </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
-      </c>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Uq4wcHSO</t>
+          <t>KvQWudPM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1455,168 +1455,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AP6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
         <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KvQWudPM</t>
+          <t>2aTezzmp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1636,160 +1642,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W7" t="n">
+        <v>15</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
       <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>11</v>
       </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AC7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
         <v>17</v>
       </c>
-      <c r="AR7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="n">
         <v>81</v>
       </c>
-      <c r="AT7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1798,7 +1804,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2aTezzmp</t>
+          <t>APW3YDHd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1818,55 +1824,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>1.73</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
         <v>1.44</v>
@@ -1878,100 +1884,100 @@
         <v>15</v>
       </c>
       <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
         <v>81</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>15</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AR8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY8" t="n">
         <v>23</v>
       </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
         <v>101</v>
       </c>
-      <c r="AT8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>81</v>
-      </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1980,7 +1986,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>APW3YDHd</t>
+          <t>hldltQz3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2000,160 +2006,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
         <v>5.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>29</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
         <v>15</v>
       </c>
       <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX9" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AY9" t="n">
         <v>17</v>
       </c>
-      <c r="AC9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AZ9" t="n">
         <v>29</v>
       </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
         <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2162,7 +2168,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hldltQz3</t>
+          <t>tO74xrzS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2182,64 +2188,64 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.17</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>5</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -2248,94 +2254,94 @@
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
         <v>17</v>
       </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>17</v>
       </c>
-      <c r="AL10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
         <v>67</v>
       </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
         <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2344,7 +2350,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tO74xrzS</t>
+          <t>KlyLCRU1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,179 +2360,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.29</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
         <v>10</v>
       </c>
-      <c r="AE11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KlyLCRU1</t>
+          <t>MRQYCZW7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2541,45 +2547,45 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.4</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
         <v>3.75</v>
@@ -2597,79 +2603,79 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2681,19 +2687,19 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
@@ -2708,7 +2714,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MRQYCZW7</t>
+          <t>feF9vkFc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2718,719 +2724,173 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
         <v>2.63</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
         <v>11</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
         <v>8.5</v>
       </c>
-      <c r="X13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
         <v>9</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
         <v>17</v>
       </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
       <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
         <v>29</v>
       </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>feF9vkFc</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>UTA Arad</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Univ. Craiova</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W14" t="n">
-        <v>11</v>
-      </c>
-      <c r="X14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
         <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>pAmNNiN5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Trabzonspor</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Adana Demirspor</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>17</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IVJXYAq9</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Igdir FK</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Amedspor</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b1mheFqJ</t>
+          <t>hjasAmxq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,158 +910,158 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.73</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
         <v>15</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
         <v>15</v>
       </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
@@ -1070,10 +1070,10 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tAhoe7gl</t>
+          <t>b1mheFqJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,41 +1092,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1135,127 +1135,127 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.62</v>
       </c>
-      <c r="R4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
         <v>21</v>
-      </c>
-      <c r="X4" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Uq4wcHSO</t>
+          <t>tAhoe7gl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,173 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AO5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>21</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="BA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB5" t="n">
         <v>101</v>
       </c>
-      <c r="AG5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="BC5" t="n">
         <v>351</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KvQWudPM</t>
+          <t>WtEnHmiT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AI6" t="n">
         <v>21</v>
       </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>81</v>
       </c>
-      <c r="AT6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2aTezzmp</t>
+          <t>Uq4wcHSO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1637,174 +1643,168 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
         <v>2.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.88</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
         <v>19</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W7" t="n">
-        <v>15</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AJ7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>11</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AP7" t="n">
         <v>29</v>
       </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
         <v>29</v>
       </c>
-      <c r="AG7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>12</v>
-      </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>APW3YDHd</t>
+          <t>KvQWudPM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1824,103 +1824,103 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T8" t="n">
         <v>4</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1929,55 +1929,55 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>6.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
         <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1986,7 +1986,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hldltQz3</t>
+          <t>2aTezzmp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2006,133 +2006,133 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W9" t="n">
         <v>15</v>
       </c>
       <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
       <c r="AC9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
         <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>19</v>
       </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
         <v>51</v>
       </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2141,25 +2141,25 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2168,7 +2168,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tO74xrzS</t>
+          <t>APW3YDHd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2188,49 +2188,49 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
         <v>1.17</v>
@@ -2239,25 +2239,25 @@
         <v>5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>12</v>
       </c>
-      <c r="Z10" t="n">
-        <v>29</v>
-      </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -2266,82 +2266,82 @@
         <v>34</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>21</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS10" t="n">
         <v>51</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>67</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX10" t="n">
         <v>29</v>
       </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2350,7 +2350,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KlyLCRU1</t>
+          <t>hldltQz3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2360,77 +2360,77 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -2442,13 +2442,13 @@
         <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2457,82 +2457,82 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MRQYCZW7</t>
+          <t>tO74xrzS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2542,179 +2542,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="P12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V12" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD12" t="n">
         <v>10</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
         <v>17</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AM12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP12" t="n">
         <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB12" t="n">
         <v>67</v>
       </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
+      <c r="BC12" t="n">
         <v>151</v>
       </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>feF9vkFc</t>
+          <t>KlyLCRU1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2724,146 +2724,146 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.95</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
         <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
       </c>
       <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
         <v>34</v>
       </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
         <v>5.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2875,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>41</v>
@@ -2887,9 +2887,373 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MRQYCZW7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Legnica</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wisla Plock</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR14" t="n">
         <v>51</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>feF9vkFc</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Univ. Craiova</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pMsXgyno</t>
+          <t>6wwaduGj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>12</v>
       </c>
-      <c r="Z2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
         <v>501</v>
       </c>
-      <c r="AH2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AX2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY2" t="n">
         <v>29</v>
       </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AZ2" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -965,10 +965,10 @@
         <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -1055,25 +1055,25 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX3" t="n">
         <v>5</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>19</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>29</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>81</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1129,22 +1129,22 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1237,25 +1237,25 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>26</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>81</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tAhoe7gl</t>
+          <t>WtEnHmiT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
         <v>6.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX5" t="n">
         <v>6</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>21</v>
-      </c>
-      <c r="X5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>351</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WtEnHmiT</t>
+          <t>Uq4wcHSO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,113 +1456,113 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
         <v>5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH6" t="n">
         <v>8</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1574,61 +1574,55 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="n">
         <v>6</v>
       </c>
-      <c r="AX6" t="n">
-        <v>26</v>
-      </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Uq4wcHSO</t>
+          <t>KvQWudPM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,168 +1637,174 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T7" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>6.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AP7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA7" t="n">
         <v>101</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="BB7" t="n">
         <v>101</v>
       </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BC7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KvQWudPM</t>
+          <t>2aTezzmp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1824,160 +1824,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W8" t="n">
+        <v>15</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
         <v>21</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AC8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>11</v>
       </c>
-      <c r="X8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AF8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
         <v>19</v>
       </c>
-      <c r="AC8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>17</v>
       </c>
-      <c r="AR8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC8" t="n">
         <v>81</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>351</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1986,7 +1986,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2aTezzmp</t>
+          <t>APW3YDHd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2006,55 +2006,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="T9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
         <v>1.44</v>
@@ -2066,100 +2066,100 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
         <v>17</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
         <v>81</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>13</v>
       </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AR9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA9" t="n">
         <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>41</v>
       </c>
       <c r="BB9" t="n">
         <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2168,7 +2168,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APW3YDHd</t>
+          <t>hldltQz3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2188,160 +2188,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AZ10" t="n">
         <v>17</v>
       </c>
-      <c r="AC10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="BA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC10" t="n">
         <v>81</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>201</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2350,7 +2350,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hldltQz3</t>
+          <t>tO74xrzS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2370,160 +2370,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="R11" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="S11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.29</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>3.5</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
       </c>
       <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY11" t="n">
         <v>12</v>
       </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AZ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC11" t="n">
         <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2532,7 +2532,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tO74xrzS</t>
+          <t>KlyLCRU1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2542,179 +2542,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
         <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.29</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
         <v>10</v>
       </c>
-      <c r="AE12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
         <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
         <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KlyLCRU1</t>
+          <t>MRQYCZW7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2729,54 +2729,54 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.4</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2785,34 +2785,34 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
         <v>17</v>
       </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2821,43 +2821,43 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
         <v>51</v>
       </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -2869,25 +2869,25 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC13" t="n">
         <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2896,7 +2896,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MRQYCZW7</t>
+          <t>feF9vkFc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2906,354 +2906,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="Q14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.63</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
         <v>9</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
         <v>17</v>
       </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
       <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC14" t="n">
         <v>151</v>
       </c>
-      <c r="BC14" t="n">
-        <v>81</v>
-      </c>
       <c r="BD14" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>feF9vkFc</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>UTA Arad</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Univ. Craiova</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -947,34 +947,34 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1329,7 +1329,7 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
         <v>2.25</v>
@@ -1478,25 +1478,25 @@
         <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1505,52 +1505,52 @@
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="n">
         <v>101</v>
@@ -1559,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1568,19 +1568,19 @@
         <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1592,20 +1592,20 @@
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1675,16 +1675,16 @@
         <v>21</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.22</v>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
         <v>2.25</v>
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1863,7 +1863,7 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R8" t="n">
         <v>2.5</v>
@@ -1875,25 +1875,25 @@
         <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
+        <v>13</v>
+      </c>
+      <c r="X8" t="n">
         <v>15</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
         <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1914,19 +1914,19 @@
         <v>81</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>21</v>
@@ -1935,10 +1935,10 @@
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1947,7 +1947,7 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="n">
         <v>3.75</v>
@@ -1965,10 +1965,10 @@
         <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
@@ -1977,7 +1977,7 @@
         <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2039,37 +2039,37 @@
         <v>34</v>
       </c>
       <c r="O9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="R9" t="n">
         <v>4.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V9" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>12</v>
@@ -2090,16 +2090,16 @@
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
         <v>23</v>
@@ -2114,13 +2114,13 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2132,13 +2132,13 @@
         <v>51</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW9" t="n">
         <v>201</v>
@@ -2147,13 +2147,13 @@
         <v>9.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>81</v>
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -2221,16 +2221,16 @@
         <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2239,16 +2239,16 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2257,10 +2257,10 @@
         <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>19</v>
@@ -2278,7 +2278,7 @@
         <v>126</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>11</v>
@@ -2287,7 +2287,7 @@
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
@@ -2296,16 +2296,16 @@
         <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2326,16 +2326,16 @@
         <v>351</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB10" t="n">
         <v>41</v>
@@ -2379,19 +2379,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L11" t="n">
         <v>2.75</v>
@@ -2400,34 +2400,34 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -2442,37 +2442,37 @@
         <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
         <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
         <v>17</v>
@@ -2487,7 +2487,7 @@
         <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2496,19 +2496,19 @@
         <v>67</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU11" t="n">
         <v>6.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AW11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
         <v>12</v>
@@ -2925,40 +2925,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="R14" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2967,13 +2967,13 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -3006,7 +3006,7 @@
         <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
         <v>9</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>21</v>
@@ -3033,13 +3033,13 @@
         <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="n">
         <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
         <v>2.63</v>
@@ -3063,7 +3063,7 @@
         <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -947,22 +947,22 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1308,7 +1308,7 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1317,34 +1317,34 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1359,16 +1359,16 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>1250</v>
@@ -1377,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1395,7 +1395,7 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1410,31 +1410,31 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
         <v>351</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
         <v>5.25</v>
@@ -1681,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
         <v>2.7</v>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
         <v>2.25</v>
@@ -1836,13 +1836,13 @@
         <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2.4</v>
@@ -1863,22 +1863,22 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W8" t="n">
         <v>13</v>
@@ -1911,19 +1911,19 @@
         <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
@@ -1935,10 +1935,10 @@
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1947,10 +1947,10 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
         <v>3.1</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -2039,13 +2039,13 @@
         <v>34</v>
       </c>
       <c r="O9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="R9" t="n">
         <v>4.2</v>
@@ -2057,10 +2057,10 @@
         <v>5.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="W9" t="n">
         <v>17</v>
@@ -2072,13 +2072,13 @@
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>34</v>
@@ -2099,10 +2099,10 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>81</v>
@@ -2111,13 +2111,13 @@
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP9" t="n">
         <v>11</v>
@@ -2150,13 +2150,13 @@
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC9" t="n">
         <v>101</v>
@@ -2227,7 +2227,7 @@
         <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
         <v>2.5</v>
@@ -2239,10 +2239,10 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
         <v>17</v>
@@ -2379,19 +2379,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L11" t="n">
         <v>2.75</v>
@@ -2400,7 +2400,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -2409,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S11" t="n">
         <v>1.2</v>
@@ -2421,7 +2421,7 @@
         <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V11" t="n">
         <v>3.25</v>
@@ -2439,22 +2439,22 @@
         <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
         <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
         <v>67</v>
@@ -2463,13 +2463,13 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>15</v>
@@ -2484,7 +2484,7 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2493,7 +2493,7 @@
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
         <v>4.33</v>
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
         <v>15</v>
@@ -2532,7 +2532,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KlyLCRU1</t>
+          <t>feF9vkFc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2542,152 +2542,152 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
         <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
         <v>7</v>
       </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8</v>
-      </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX12" t="n">
         <v>4</v>
@@ -2699,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB12" t="n">
         <v>51</v>
@@ -2708,370 +2708,6 @@
         <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MRQYCZW7</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>POLAND - DIVISION 1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Legnica</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Wisla Plock</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>feF9vkFc</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>UTA Arad</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Univ. Craiova</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12</v>
-      </c>
-      <c r="X14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b1mheFqJ</t>
+          <t>WtEnHmiT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.38</v>
       </c>
-      <c r="L4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH4" t="n">
         <v>9</v>
       </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9</v>
       </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD4" t="n">
         <v>81</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WtEnHmiT</t>
+          <t>Uq4wcHSO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,122 +1274,122 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W5" t="n">
         <v>4.75</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
         <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
@@ -1398,55 +1398,49 @@
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>81</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Uq4wcHSO</t>
+          <t>KvQWudPM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,168 +1455,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.13</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>6</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>2.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.19</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AR6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
         <v>101</v>
       </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="BB6" t="n">
         <v>101</v>
       </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="BC6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KvQWudPM</t>
+          <t>2aTezzmp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1642,136 +1642,136 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
         <v>19</v>
       </c>
-      <c r="AC7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AM7" t="n">
         <v>23</v>
       </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
@@ -1780,22 +1780,22 @@
         <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC7" t="n">
         <v>101</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>151</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1804,7 +1804,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2aTezzmp</t>
+          <t>APW3YDHd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1824,157 +1824,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>6.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T8" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>21</v>
       </c>
-      <c r="AC8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AK8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU8" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AV8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY8" t="n">
         <v>29</v>
       </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="n">
         <v>101</v>
@@ -1986,7 +1986,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>APW3YDHd</t>
+          <t>hldltQz3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2006,160 +2006,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.25</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>1.67</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
         <v>5.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>34</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="R9" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
         <v>17</v>
       </c>
       <c r="X9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>21</v>
       </c>
-      <c r="AK9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AP9" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AZ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA9" t="n">
         <v>23</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>101</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2168,7 +2168,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hldltQz3</t>
+          <t>tO74xrzS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2188,160 +2188,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
         <v>19</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN10" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
         <v>17</v>
       </c>
-      <c r="X10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY10" t="n">
         <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>9</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB10" t="n">
         <v>41</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2350,7 +2350,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tO74xrzS</t>
+          <t>feF9vkFc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2360,354 +2360,172 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.6</v>
       </c>
-      <c r="L11" t="n">
-        <v>2.75</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
         <v>29</v>
       </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>17</v>
-      </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY11" t="n">
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>34</v>
       </c>
       <c r="BB11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>feF9vkFc</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>UTA Arad</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Univ. Craiova</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W12" t="n">
-        <v>12</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -816,10 +816,10 @@
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -959,10 +959,10 @@
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1469,19 +1469,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
@@ -1505,16 +1505,16 @@
         <v>2.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T6" t="n">
         <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
         <v>11</v>
@@ -1532,13 +1532,13 @@
         <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1547,13 +1547,13 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
@@ -1565,16 +1565,16 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>17</v>
@@ -1598,7 +1598,7 @@
         <v>351</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1687,13 +1687,13 @@
         <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V7" t="n">
         <v>2.5</v>
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
         <v>6.25</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>1.73</v>
@@ -1869,13 +1869,13 @@
         <v>4.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="T8" t="n">
         <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V8" t="n">
         <v>2.75</v>
@@ -1884,7 +1884,7 @@
         <v>17</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -1905,7 +1905,7 @@
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
@@ -1923,7 +1923,7 @@
         <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -1959,10 +1959,10 @@
         <v>34</v>
       </c>
       <c r="AW8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -2015,13 +2015,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
         <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J9" t="n">
         <v>4.5</v>
@@ -2045,22 +2045,22 @@
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
         <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
         <v>17</v>
@@ -2069,10 +2069,10 @@
         <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA9" t="n">
         <v>29</v>
@@ -2105,7 +2105,7 @@
         <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
@@ -2117,22 +2117,22 @@
         <v>6.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2345,188 +2345,6 @@
       </c>
       <c r="BD10" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>feF9vkFc</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>UTA Arad</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Univ. Craiova</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>12</v>
-      </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -756,7 +756,7 @@
         <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -953,16 +953,16 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1153,28 +1153,28 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1183,25 +1183,25 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1231,28 +1231,28 @@
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>81</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>351</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
         <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>3.1</v>
@@ -1335,16 +1335,16 @@
         <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1374,10 +1374,10 @@
         <v>101</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
@@ -1389,13 +1389,13 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
@@ -1413,7 +1413,7 @@
         <v>2.1</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>101</v>
@@ -1429,10 +1429,10 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1478,10 +1478,10 @@
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
         <v>2.2</v>
@@ -1833,16 +1833,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="K8" t="n">
         <v>3.1</v>
@@ -1875,13 +1875,13 @@
         <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1908,10 +1908,10 @@
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1920,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1965,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1977,7 +1977,7 @@
         <v>67</v>
       </c>
       <c r="BC8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2057,7 +2057,7 @@
         <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
         <v>2.25</v>
@@ -2227,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R10" t="n">
         <v>3.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
         <v>6.25</v>
@@ -759,10 +759,10 @@
         <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,34 +771,34 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
+        <v>11</v>
+      </c>
+      <c r="X2" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -810,13 +810,13 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -840,13 +840,13 @@
         <v>81</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
         <v>7</v>
@@ -855,25 +855,25 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
         <v>8</v>
@@ -882,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -891,7 +891,7 @@
         <v>101</v>
       </c>
       <c r="BC2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -947,13 +947,13 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1076,7 +1076,7 @@
         <v>251</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1129,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1259,1092 +1259,6 @@
       </c>
       <c r="BD4" t="n">
         <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Uq4wcHSO</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MOROCCO - BOTOLA PRO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FUS Rabat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Maghreb Fez</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KvQWudPM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Dordrecht</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Oss</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2aTezzmp</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FC Emmen</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>De Graafschap</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>APW3YDHd</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FC Volendam</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Jong Ajax</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3</v>
-      </c>
-      <c r="W8" t="n">
-        <v>19</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>hldltQz3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Helmond</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Den Haag</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>19</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>17</v>
-      </c>
-      <c r="X9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>tO74xrzS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Jong PSV</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Jong AZ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>21</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>19</v>
-      </c>
-      <c r="X10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>1.95</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -801,10 +801,10 @@
         <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -822,10 +822,10 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -876,7 +876,7 @@
         <v>401</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -885,10 +885,10 @@
         <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -929,31 +929,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -965,28 +965,28 @@
         <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,19 +1007,19 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
@@ -1028,10 +1028,10 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1046,22 +1046,22 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
@@ -1070,13 +1070,13 @@
         <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
         <v>251</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1129,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.95</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -801,10 +801,10 @@
         <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -813,19 +813,19 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -876,7 +876,7 @@
         <v>401</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -885,10 +885,10 @@
         <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -932,13 +932,13 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -947,34 +947,34 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -989,13 +989,13 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,13 +1007,13 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1022,7 +1022,7 @@
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1046,13 +1046,13 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WtEnHmiT</t>
+          <t>QNVAAJKg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,116 +1092,116 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W4" t="n">
         <v>5</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>5.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
         <v>7</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,40 +1210,40 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1255,11 +1255,727 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WtEnHmiT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AC Ajaccio</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
         <v>351</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD5" t="n">
         <v>81</v>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mq6z8qjA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>lW7S95Lc</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>YNPun2Tj</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hjasAmxq</t>
+          <t>QNVAAJKg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,149 +910,149 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
         <v>9</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
         <v>126</v>
@@ -1061,28 +1061,28 @@
         <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QNVAAJKg</t>
+          <t>Mq6z8qjA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,111 +1097,111 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
         <v>5.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5</v>
-      </c>
       <c r="X4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
       <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>21</v>
       </c>
-      <c r="AA4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>23</v>
-      </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,40 +1210,38 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>126</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1255,16 +1253,14 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WtEnHmiT</t>
+          <t>lW7S95Lc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1270,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1326,7 +1322,7 @@
         <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1335,76 +1331,76 @@
         <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>251</v>
@@ -1413,40 +1409,36 @@
         <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>81</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
         <v>101</v>
       </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
       <c r="BC5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mq6z8qjA</t>
+          <t>YNPun2Tj</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,124 +1458,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
         <v>7.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1592,390 +1584,34 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>26</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lW7S95Lc</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>General Caballero JLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>YNPun2Tj</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Libertad Asuncion</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sol de America</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6wwaduGj</t>
+          <t>QNVAAJKg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
         <v>4.75</v>
       </c>
-      <c r="I2" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
         <v>5.5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
-        <v>19</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.5</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11</v>
       </c>
-      <c r="X2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
       </c>
       <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY2" t="n">
         <v>41</v>
       </c>
-      <c r="AN2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QNVAAJKg</t>
+          <t>Mq6z8qjA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -915,111 +915,111 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.67</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
       <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21</v>
       </c>
-      <c r="AA3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1028,61 +1028,57 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>101</v>
       </c>
-      <c r="AS3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mq6z8qjA</t>
+          <t>lW7S95Lc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,37 +1098,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1141,16 +1137,16 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1159,31 +1155,31 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
         <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1192,43 +1188,43 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1236,31 +1232,31 @@
       <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>351</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lW7S95Lc</t>
+          <t>YNPun2Tj</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1280,64 +1276,64 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1349,269 +1345,91 @@
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>67</v>
-      </c>
       <c r="BB5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>301</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>YNPun2Tj</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Libertad Asuncion</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sol de America</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -1321,10 +1321,10 @@
         <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -828,7 +828,7 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -876,13 +876,13 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -759,7 +759,7 @@
         <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>4.5</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1122,13 +1122,13 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1149,22 +1149,22 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1194,19 +1194,19 @@
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1236,19 +1236,19 @@
         <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -1125,10 +1125,10 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1294,7 +1294,7 @@
         <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1303,22 +1303,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1339,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
@@ -1348,10 +1348,10 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1366,7 +1366,7 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1384,16 +1384,16 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -795,16 +795,16 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>101</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -873,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1149,22 +1149,22 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1194,19 +1194,19 @@
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
         <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1236,19 +1236,19 @@
         <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1294,7 +1294,7 @@
         <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1303,22 +1303,22 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1339,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
@@ -1348,16 +1348,16 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1366,7 +1366,7 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1384,16 +1384,16 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1417,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -780,31 +780,31 @@
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -864,7 +864,7 @@
         <v>401</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -873,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -953,16 +953,16 @@
         <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -998,7 +998,7 @@
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,7 +1010,7 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1034,10 +1034,10 @@
         <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1158,7 +1158,7 @@
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1233,7 +1233,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -780,7 +780,7 @@
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -947,22 +947,22 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1125,16 +1125,16 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mq6z8qjA</t>
+          <t>Cn4YuSZh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
         <v>17</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AJ3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
       <c r="AK3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL3" t="n">
         <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lW7S95Lc</t>
+          <t>Mq6z8qjA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1098,55 +1102,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.35</v>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1155,31 +1159,31 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>7</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1188,43 +1192,43 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1233,22 +1237,22 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1256,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YNPun2Tj</t>
+          <t>lW7S95Lc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1276,67 +1280,67 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.1</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1345,91 +1349,269 @@
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
         <v>29</v>
       </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
         <v>67</v>
       </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>YNPun2Tj</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cn4YuSZh</t>
+          <t>f3NR6yKI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,22 +910,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -935,88 +935,86 @@
         <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
@@ -1025,64 +1023,64 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
         <v>151</v>
       </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mq6z8qjA</t>
+          <t>0tON7H4C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,47 +1090,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1141,28 +1139,28 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1171,28 +1169,26 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1210,31 +1206,31 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1252,15 +1248,19 @@
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lW7S95Lc</t>
+          <t>UsigYik2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,167 +1270,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>1.5</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
         <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YNPun2Tj</t>
+          <t>Cn4YuSZh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,95 +1448,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>10</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1548,70 +1548,608 @@
         <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mq6z8qjA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lW7S95Lc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>YNPun2Tj</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>4.75</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX9" t="n">
         <v>17</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY9" t="n">
         <v>29</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ9" t="n">
         <v>51</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -942,7 +942,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -990,13 +990,13 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1044,7 +1044,7 @@
         <v>2.38</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AU3" t="n">
         <v>67</v>
@@ -1059,13 +1059,13 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BB3" t="n">
         <v>126</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
@@ -1125,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1143,10 +1143,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1164,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
@@ -1179,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>101</v>
@@ -1206,7 +1206,7 @@
         <v>4.33</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1239,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ4" t="n">
         <v>126</v>
@@ -1303,10 +1303,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -945,10 +945,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -969,22 +969,22 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -999,22 +999,22 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1047,7 +1047,7 @@
         <v>9.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AV3" t="n">
         <v>6</v>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
         <v>3.1</v>
@@ -1125,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1164,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
@@ -1206,7 +1206,7 @@
         <v>4.33</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU4" t="n">
         <v>101</v>
@@ -1242,7 +1242,7 @@
         <v>81</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,13 +825,13 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>81</v>
@@ -843,7 +843,7 @@
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AN2" t="n">
         <v>7.5</v>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -879,7 +879,7 @@
         <v>41</v>
       </c>
       <c r="AY2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AZ2" t="n">
         <v>201</v>
@@ -1071,7 +1071,7 @@
         <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1125,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -969,22 +969,22 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -999,13 +999,13 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1113,10 +1113,10 @@
         <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1125,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -1303,16 +1303,16 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.8</v>
@@ -1363,7 +1363,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
@@ -1432,7 +1432,7 @@
         <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -780,7 +780,7 @@
         <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1303,10 +1303,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
@@ -1327,10 +1327,10 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
@@ -1354,10 +1354,10 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1384,7 +1384,7 @@
         <v>3.4</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1396,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -792,7 +792,7 @@
         <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -945,10 +945,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -957,10 +957,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -972,7 +972,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1071,7 +1071,7 @@
         <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1113,10 +1113,10 @@
         <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1152,7 +1152,7 @@
         <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1291,7 +1291,7 @@
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -1303,19 +1303,19 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
@@ -1327,13 +1327,13 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>7</v>
@@ -1366,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>81</v>
@@ -1384,7 +1384,7 @@
         <v>3.4</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1396,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
         <v>3.1</v>
@@ -1119,7 +1119,7 @@
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -1131,10 +1131,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>3.4</v>
@@ -1152,7 +1152,7 @@
         <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1173,7 +1173,7 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1285,34 +1285,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.8</v>
@@ -1327,13 +1327,13 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>7</v>
@@ -1363,16 +1363,16 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
         <v>51</v>
@@ -1384,7 +1384,7 @@
         <v>3.4</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1396,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
         <v>3</v>
@@ -1408,7 +1408,7 @@
         <v>51</v>
       </c>
       <c r="AV5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AW5" t="n">
         <v>34</v>
@@ -1423,7 +1423,7 @@
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,70 +789,70 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -864,31 +864,31 @@
         <v>2.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
         <v>81</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>41</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY2" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AZ2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA2" t="n">
         <v>501</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -957,7 +957,7 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.5</v>
@@ -969,22 +969,22 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -999,7 +999,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1023,7 +1023,7 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN3" t="n">
         <v>11</v>
@@ -1053,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="AW3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1110,10 +1110,10 @@
         <v>2.57</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
@@ -1125,28 +1125,28 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.73</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>101</v>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU4" t="n">
         <v>101</v>
@@ -1239,10 +1239,10 @@
         <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -780,7 +780,7 @@
         <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -945,10 +945,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -960,7 +960,7 @@
         <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1251,188 +1251,6 @@
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>101</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cn4YuSZh</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Oriente Petrolero</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Santa Cruz</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,129 +596,129 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0_HT</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1_HT</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0_HT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1_HT</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f3NR6yKI</t>
+          <t>6wwaduGj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,177 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.1</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
         <v>7</v>
       </c>
-      <c r="AO2" t="n">
-        <v>23</v>
-      </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.63</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
       </c>
-      <c r="BD2" t="inlineStr"/>
+      <c r="BD2" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0tON7H4C</t>
+          <t>pMsXgyno</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -908,177 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.44</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
         <v>5.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
         <v>19</v>
       </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.6</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.38</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
         <v>81</v>
       </c>
-      <c r="AV3" t="n">
-        <v>6</v>
-      </c>
       <c r="AW3" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>4.5</v>
       </c>
       <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
         <v>101</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>401</v>
-      </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD3" t="n">
         <v>126</v>
       </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UsigYik2</t>
+          <t>hjasAmxq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,169 +1092,5043 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.75</v>
       </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K4" t="n">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
         <v>29</v>
       </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AZ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="BC4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>QNVAAJKg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Central Cordoba</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f3NR6yKI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Argentinos Jrs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>13</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0tON7H4C</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ind. Rivadavia</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UsigYik2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>San Martin T.</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
         <v>13</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
         <v>34</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL8" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM8" t="n">
         <v>51</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN8" t="n">
         <v>4.33</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO8" t="n">
         <v>19</v>
       </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP4" t="n">
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>67</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR8" t="n">
         <v>126</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS8" t="n">
         <v>351</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT8" t="n">
         <v>2</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU8" t="n">
         <v>10</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV8" t="n">
         <v>101</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="n">
         <v>4.75</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AY8" t="n">
         <v>21</v>
       </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BB8" t="n">
         <v>126</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BC8" t="n">
         <v>351</v>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="n">
+      <c r="BD8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cn4YuSZh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AiivoxjC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BULGARIA - PARVA LIGA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Slavia Sofia</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Krumovgrad</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dKuY1awJ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AEK Larnaca</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Karmiotissa</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>b1mheFqJ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DENMARK - SUPERLIGA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tAhoe7gl</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DENMARK - 1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>21</v>
+      </c>
+      <c r="X13" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WtEnHmiT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>AC Ajaccio</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>YHOF5rBm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GREECE - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IBJAWlHc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>tvEkq8nm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Club Tijuana</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Uq4wcHSO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KvQWudPM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2aTezzmp</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FC Emmen</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>APW3YDHd</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Jong Ajax</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>34</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>19</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hldltQz3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Helmond</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Den Haag</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>19</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>17</v>
+      </c>
+      <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tO74xrzS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Jong PSV</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Jong AZ</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>19</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mq6z8qjA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lW7S95Lc</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>YNPun2Tj</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KlyLCRU1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W27" t="n">
+        <v>11</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MRQYCZW7</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Legnica</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Wisla Plock</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>pAmNNiN5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>IVJXYAq9</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zRQv9vQQ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
